--- a/data/dokumentasjonIndikatorer.xlsx
+++ b/data/dokumentasjonIndikatorer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CB0A5D-65DA-45BB-AD0B-5EC482B775A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107BD01F-93BB-4DAE-BF2C-1BB06F26FE85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{700FE4A4-6334-44C7-BE87-4D8C252BF051}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{700FE4A4-6334-44C7-BE87-4D8C252BF051}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
     <t>Bla bla bla (Kolstad et al xxx)</t>
   </si>
   <si>
-    <t>kkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkk</t>
+    <t>dfsdfds fd fdsf s f fsdf dsfds ds  dfs  dfs sfdf ds  sdfsdf sdfdsf sdfsf   sdf sfg wr  hte ht  htrrthhrthrt htrh rthrthrt htrh  h trrthtr  htr t r dfsdfds fd fdsf s f fsdf dsfds ds  dfs  dfs sfdf ds  sdfsdf sdfdsf sdfsf   sdf sfg wr  hte ht  htrrthhrthrt htrh rthrthrt htrh  h trrthtr  htr t r</t>
   </si>
 </sst>
 </file>
@@ -625,17 +625,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE55769D-2E02-4327-B4F9-256E65170B95}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="13.85546875" style="5"/>
+    <col min="1" max="1" width="25.26953125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="13.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="330" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="290" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -783,7 +783,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -839,7 +839,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -867,7 +867,7 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -895,7 +895,7 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -923,7 +923,7 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -951,7 +951,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -979,7 +979,7 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1035,7 +1035,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1063,7 +1063,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:24" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>

--- a/data/dokumentasjonIndikatorer.xlsx
+++ b/data/dokumentasjonIndikatorer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107BD01F-93BB-4DAE-BF2C-1BB06F26FE85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E76881A-A8E2-4849-9D19-51E0B863FB70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{700FE4A4-6334-44C7-BE87-4D8C252BF051}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{700FE4A4-6334-44C7-BE87-4D8C252BF051}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Geografisk avgrensing </t>
   </si>
@@ -206,32 +206,98 @@
     <t>Anders Kolstad</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>Overvåkingsprogrammet for fjellrev</t>
-  </si>
-  <si>
-    <t>Fjellrevområder i Norge</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
-    <t>Bla bla bla</t>
-  </si>
-  <si>
-    <t>Bla bla bla (Kolstad et al xxx)</t>
-  </si>
-  <si>
-    <t>dfsdfds fd fdsf s f fsdf dsfds ds  dfs  dfs sfdf ds  sdfsdf sdfdsf sdfsf   sdf sfg wr  hte ht  htrrthhrthrt htrh rthrthrt htrh  h trrthtr  htr t r dfsdfds fd fdsf s f fsdf dsfds ds  dfs  dfs sfdf ds  sdfsdf sdfdsf sdfsf   sdf sfg wr  hte ht  htrrthhrthrt htrh rthrthrt htrh  h trrthtr  htr t r</t>
+    <t>Alle fjellområder (med forekomst av fjellrev siden 1950). Egnet habitat: lavalpin, mellomalpin.</t>
+  </si>
+  <si>
+    <t>Overvåking fjellrev: Antall reproduserende individer pr kommune, basert på overvåking siden 2010 </t>
+  </si>
+  <si>
+    <t>Siden 2010</t>
+  </si>
+  <si>
+    <t>Dataene dekker alle fjellrevområdene</t>
+  </si>
+  <si>
+    <t>Fjellrev er en alpin mesopredator, og en redusert bestand vil bety redusert predasjonstrykk, spesielt på smagnagere.</t>
+  </si>
+  <si>
+    <t>Funksjonell sammensetning innen trofiske nivåer</t>
+  </si>
+  <si>
+    <t>Mindre fjellrev kan ofte begrunnes med økt konkurranse med rødrev, som er i samme trofiske gruppe.</t>
+  </si>
+  <si>
+    <t>Ingen kjente, med unntak av byttedyrene (smågnagere)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fjellrev påvirkes av naturlige svingninger i smågnagerbestand og tilgjengelighet av åtsel (kanskje spesielt rein) som kan være en ganske så sporadisk ressurs. </t>
+  </si>
+  <si>
+    <t>Fjellrev påvirkes av beskatning gjennom tidligere tiders pelsfangst. Den påvirkes også av klimaendringer, spesielt der dette gir negativt utslag på smågnagere.</t>
+  </si>
+  <si>
+    <t>ALK</t>
+  </si>
+  <si>
+    <t>Hele Norge</t>
+  </si>
+  <si>
+    <t>NINA. Reirlokaliteter er skjermet, men territoriene er ikke det.</t>
+  </si>
+  <si>
+    <t>Rovdata for territorier, samt habitategnethetsmodell fra Jenny Mattisson</t>
+  </si>
+  <si>
+    <t>Shapefil med kongeørnterritorier. Kjente reirplasser er gruppert sammen om de tilhører ett territorium, og så er det slått rundt en 10km radius sirkel som et konservativt mål på arealbruken til det territoriet. Vi har ikke sikre tall fra hvert år hvorvidt territoriene var besatt; bare at de har vært brukt en gang siden 2010.</t>
+  </si>
+  <si>
+    <t>Antall territorier</t>
+  </si>
+  <si>
+    <t>2010-2019</t>
+  </si>
+  <si>
+    <t>Er dette data fra den intensive eller ekstensive protokollen?</t>
+  </si>
+  <si>
+    <t>Den ekstensive overvåkingen av hekkebetsanden til kongeørn er i utgangspunktet arealdekkende, men man klarer allikevel ikke å fange opp alle hekketerritorier.</t>
+  </si>
+  <si>
+    <t>Kongeørn er en topp-predator i fjellet og tar middles store pattedyr, samt fulger, inkludert hønsefulg. Kongeørn er også en oppurtinistisk åtseleter og er begustiget av mye rein.</t>
+  </si>
+  <si>
+    <t>Biomasse mellom trofiske nivåer</t>
+  </si>
+  <si>
+    <t>Kongeørn inngår i flere av de viktigste næringsskjedene i fjellet.</t>
+  </si>
+  <si>
+    <t>Kongeørn konkurerer med fjellvåk og kan også sikkert konkurere med jerv om åtsel.</t>
+  </si>
+  <si>
+    <t>Kongeørn påvirkes av naturlige svingninger i mattilgangen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kongeørn påvirkes negativt av utbygging og infrastruktur i fjellet (ref). </t>
+  </si>
+  <si>
+    <t>Referansetilstanden kan kanskje lånes fra NI. Da bør vi snakke med Torgeir Nygård for å finne ut hva som er tenkt der. Ref.tilstanden vil trolig være bare litt høyere enn hva den er i dag. Men, for å ta hensyn til geografiske forskjeller så bør ikke den samme ref.tilstanden gjelde overalt. Derfor ganger vi ref.tilstanden med en modellert habitategnethet (mellom 0 og 1, hvor 1 er best). Dette vil føre til at ref.tilstanded på Finnmarksvidda for eksempel vil bli lavere enn i Jotunheimen. </t>
+  </si>
+  <si>
+    <t>Lineær</t>
+  </si>
+  <si>
+    <t>Minimumsverdi blir satt til null.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,16 +322,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF0078D4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -288,32 +398,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -626,668 +829,712 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="13.81640625" style="5"/>
+    <col min="1" max="1" width="25.26953125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="13.81640625" style="3"/>
+    <col min="4" max="4" width="28.26953125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="13.81640625" style="3"/>
+    <col min="7" max="7" width="28.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.6328125" style="3" customWidth="1"/>
+    <col min="9" max="19" width="13.81640625" style="3"/>
+    <col min="20" max="20" width="42.6328125" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="13.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:24" s="8" customFormat="1" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="290" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:24" s="14" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13">
+        <v>44452</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="P2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
     </row>
     <row r="3" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" ht="202" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44452</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
     </row>
     <row r="14" spans="1:24" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="O2">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/dokumentasjonIndikatorer.xlsx
+++ b/data/dokumentasjonIndikatorer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E76881A-A8E2-4849-9D19-51E0B863FB70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2B5BB2-18EE-4CD6-89C8-26D8067F33C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{700FE4A4-6334-44C7-BE87-4D8C252BF051}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{700FE4A4-6334-44C7-BE87-4D8C252BF051}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,63 +146,21 @@
     <t>Indikator</t>
   </si>
   <si>
-    <t>Bestandsnivå fjellrev</t>
-  </si>
-  <si>
-    <t>Bestandsnivå jerv</t>
-  </si>
-  <si>
-    <t>Bestandsnivå villrein</t>
-  </si>
-  <si>
     <t>Smågnagere</t>
   </si>
   <si>
-    <t>Bestandsnivå lirype</t>
-  </si>
-  <si>
-    <t>Bestandsnivå fjellrype</t>
-  </si>
-  <si>
     <t>Kongeørn</t>
   </si>
   <si>
     <t>Fjellvåk</t>
   </si>
   <si>
-    <t>NI for fjell</t>
-  </si>
-  <si>
-    <t>Ellenberg N</t>
-  </si>
-  <si>
-    <t>Ellenberg L</t>
-  </si>
-  <si>
-    <t>Dahls R</t>
-  </si>
-  <si>
-    <t>Areal uten fremmede plantearter</t>
-  </si>
-  <si>
-    <t>Dekning av trær og busker</t>
-  </si>
-  <si>
     <t>NDVI</t>
   </si>
   <si>
-    <t>Areal uten tekniske inngrep</t>
-  </si>
-  <si>
-    <t>Areal av isbreer</t>
-  </si>
-  <si>
     <t>Snømengde</t>
   </si>
   <si>
-    <t>Snøsesong varighet</t>
-  </si>
-  <si>
     <t>Anders Kolstad</t>
   </si>
   <si>
@@ -291,6 +249,48 @@
   </si>
   <si>
     <t>Minimumsverdi blir satt til null.</t>
+  </si>
+  <si>
+    <t>EllenbergN</t>
+  </si>
+  <si>
+    <t>EllenbergL</t>
+  </si>
+  <si>
+    <t>DahlsR</t>
+  </si>
+  <si>
+    <t>Areal-uten-fremmede-plantearter</t>
+  </si>
+  <si>
+    <t>Dekning-av-trær-og-busker</t>
+  </si>
+  <si>
+    <t>Snøsesong-varighet</t>
+  </si>
+  <si>
+    <t>Areal-av-isbreer</t>
+  </si>
+  <si>
+    <t>Areal-uten-tekniske-inngrep</t>
+  </si>
+  <si>
+    <t>NI-for-fjell</t>
+  </si>
+  <si>
+    <t>Bestandsnivå-fjellrev</t>
+  </si>
+  <si>
+    <t>Bestandsnivå-jerv</t>
+  </si>
+  <si>
+    <t>Bestandsnivå-villrein</t>
+  </si>
+  <si>
+    <t>Bestandsnivå-lirype</t>
+  </si>
+  <si>
+    <t>Bestandsnivå-fjellrype</t>
   </si>
 </sst>
 </file>
@@ -829,10 +829,10 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -843,7 +843,11 @@
     <col min="5" max="6" width="13.81640625" style="3"/>
     <col min="7" max="7" width="28.7265625" style="3" customWidth="1"/>
     <col min="8" max="8" width="20.6328125" style="3" customWidth="1"/>
-    <col min="9" max="19" width="13.81640625" style="3"/>
+    <col min="9" max="11" width="13.81640625" style="3"/>
+    <col min="12" max="12" width="23.81640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="3"/>
+    <col min="14" max="14" width="29" style="3" customWidth="1"/>
+    <col min="15" max="19" width="13.81640625" style="3"/>
     <col min="20" max="20" width="42.6328125" style="3" customWidth="1"/>
     <col min="21" max="16384" width="13.81640625" style="3"/>
   </cols>
@@ -924,51 +928,51 @@
     </row>
     <row r="2" spans="1:24" s="14" customFormat="1" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C2" s="13">
         <v>44452</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
@@ -978,7 +982,7 @@
     </row>
     <row r="3" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1006,7 +1010,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1034,7 +1038,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1062,7 +1066,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1090,7 +1094,7 @@
     </row>
     <row r="7" spans="1:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1116,77 +1120,77 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="202" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="160" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4">
         <v>44452</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="T8" s="18" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1214,7 +1218,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1242,7 +1246,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1270,7 +1274,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1298,7 +1302,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1326,7 +1330,7 @@
     </row>
     <row r="14" spans="1:24" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1354,7 +1358,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1382,7 +1386,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1410,7 +1414,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1438,7 +1442,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1466,7 +1470,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1494,7 +1498,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
